--- a/docs/mcode/shr-core-Device.xlsx
+++ b/docs/mcode/shr-core-Device.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$27</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="189">
   <si>
     <t>Path</t>
   </si>
@@ -189,19 +189,98 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
-    <t>Device.meta.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Device.meta.extension</t>
+    <t>Device.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
+  </si>
+  <si>
+    <t>Device.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://tools.ietf.org/html/bcp47</t>
+  </si>
+  <si>
+    <t>Device.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Device.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Device.extension</t>
   </si>
   <si>
     <t>extensions
@@ -215,193 +294,10 @@
     <t>Additional Content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Device.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Device.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Device.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Device.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Device.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>Device.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
-  </si>
-  <si>
-    <t>Device.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://tools.ietf.org/html/bcp47</t>
-  </si>
-  <si>
-    <t>Device.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Device.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Device.extension</t>
-  </si>
-  <si>
-    <t>Device:argoprofile.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -859,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM34"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -869,7 +765,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.7421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -891,8 +787,8 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="39.84375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="32.96484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="38.12890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -1363,21 +1259,23 @@
         <v>39</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>60</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>39</v>
@@ -1399,7 +1297,7 @@
         <v>39</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W5" t="s" s="2">
         <v>39</v>
@@ -1425,11 +1323,15 @@
       <c r="AD5" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE5" s="2"/>
+      <c r="AE5" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AF5" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG5" s="2"/>
+      <c r="AG5" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="AH5" t="s" s="2">
         <v>39</v>
       </c>
@@ -1440,7 +1342,7 @@
         <v>39</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>39</v>
@@ -1448,18 +1350,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>39</v>
@@ -1503,16 +1405,16 @@
         <v>39</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>39</v>
@@ -1529,11 +1431,15 @@
       <c r="AD6" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE6" s="2"/>
+      <c r="AE6" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="AF6" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG6" s="2"/>
+      <c r="AG6" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="AH6" t="s" s="2">
         <v>39</v>
       </c>
@@ -1544,7 +1450,7 @@
         <v>39</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>39</v>
@@ -1552,11 +1458,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1572,19 +1478,19 @@
         <v>39</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1607,7 +1513,7 @@
         <v>39</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W7" t="s" s="2">
         <v>39</v>
@@ -1633,13 +1539,17 @@
       <c r="AD7" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>39</v>
@@ -1648,7 +1558,7 @@
         <v>39</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>39</v>
@@ -1656,18 +1566,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>39</v>
@@ -1676,19 +1586,19 @@
         <v>39</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1711,7 +1621,7 @@
         <v>39</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W8" t="s" s="2">
         <v>39</v>
@@ -1737,11 +1647,15 @@
       <c r="AD8" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AF8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG8" s="2"/>
+      <c r="AG8" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH8" t="s" s="2">
         <v>39</v>
       </c>
@@ -1752,7 +1666,7 @@
         <v>39</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>39</v>
@@ -1760,11 +1674,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1780,19 +1694,19 @@
         <v>39</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1815,7 +1729,7 @@
         <v>39</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W9" t="s" s="2">
         <v>39</v>
@@ -1830,22 +1744,24 @@
         <v>39</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE9" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="AF9" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG9" s="2"/>
+      <c r="AG9" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH9" t="s" s="2">
         <v>39</v>
       </c>
@@ -1856,7 +1772,7 @@
         <v>39</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>39</v>
@@ -1864,9 +1780,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>39</v>
       </c>
@@ -1875,7 +1793,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>39</v>
@@ -1884,20 +1802,16 @@
         <v>39</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>39</v>
@@ -1919,16 +1833,16 @@
         <v>39</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>39</v>
@@ -1945,11 +1859,15 @@
       <c r="AD10" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>39</v>
       </c>
@@ -1968,11 +1886,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -1985,22 +1903,22 @@
         <v>39</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2023,13 +1941,13 @@
         <v>39</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="Y11" t="s" s="2">
         <v>39</v>
@@ -2049,11 +1967,15 @@
       <c r="AD11" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE11" s="2"/>
+      <c r="AE11" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG11" s="2"/>
+      <c r="AG11" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH11" t="s" s="2">
         <v>39</v>
       </c>
@@ -2064,7 +1986,7 @@
         <v>39</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>39</v>
@@ -2072,7 +1994,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2083,28 +2005,28 @@
         <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2154,13 +2076,13 @@
         <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>39</v>
@@ -2172,15 +2094,15 @@
         <v>39</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>39</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2188,13 +2110,13 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>39</v>
@@ -2203,16 +2125,16 @@
         <v>39</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2238,34 +2160,32 @@
         <v>40</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE13" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AF13" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>46</v>
@@ -2277,29 +2197,29 @@
         <v>39</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>39</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>39</v>
@@ -2311,17 +2231,15 @@
         <v>39</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>39</v>
@@ -2370,16 +2288,16 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>39</v>
@@ -2388,7 +2306,7 @@
         <v>39</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>39</v>
@@ -2396,40 +2314,38 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>39</v>
@@ -2454,13 +2370,13 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>39</v>
@@ -2478,13 +2394,13 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>39</v>
@@ -2496,28 +2412,26 @@
         <v>39</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>39</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>39</v>
@@ -2529,17 +2443,15 @@
         <v>39</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>65</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>39</v>
@@ -2576,23 +2488,25 @@
         <v>39</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AE16" t="s" s="2">
-        <v>121</v>
-      </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>39</v>
@@ -2604,7 +2518,7 @@
         <v>39</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>39</v>
@@ -2612,11 +2526,9 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>39</v>
       </c>
@@ -2637,11 +2549,13 @@
         <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="L17" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2692,13 +2606,13 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>39</v>
@@ -2710,48 +2624,46 @@
         <v>39</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>39</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>65</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>39</v>
@@ -2800,13 +2712,13 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>39</v>
@@ -2818,7 +2730,7 @@
         <v>39</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>39</v>
@@ -2826,7 +2738,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2837,7 +2749,7 @@
         <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>39</v>
@@ -2849,17 +2761,15 @@
         <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>39</v>
@@ -2908,13 +2818,13 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>39</v>
@@ -2926,15 +2836,15 @@
         <v>39</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>138</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2942,13 +2852,13 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>39</v>
@@ -2960,14 +2870,12 @@
         <v>140</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>39</v>
@@ -2992,32 +2900,34 @@
         <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="X20" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="AF20" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>46</v>
@@ -3029,32 +2939,32 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>39</v>
@@ -3063,15 +2973,17 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>39</v>
@@ -3120,13 +3032,13 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
@@ -3135,18 +3047,18 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>39</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3163,21 +3075,23 @@
         <v>39</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>39</v>
@@ -3202,32 +3116,32 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="Y22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>152</v>
-      </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3244,15 +3158,15 @@
         <v>39</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>158</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3275,13 +3189,13 @@
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3332,7 +3246,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3350,7 +3264,7 @@
         <v>39</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>39</v>
@@ -3358,7 +3272,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3381,13 +3295,13 @@
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3438,7 +3352,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3456,15 +3370,15 @@
         <v>39</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3472,13 +3386,13 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>39</v>
@@ -3487,13 +3401,13 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3544,7 +3458,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3559,18 +3473,18 @@
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>39</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3581,7 +3495,7 @@
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>39</v>
@@ -3593,15 +3507,17 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>39</v>
@@ -3650,13 +3566,13 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
@@ -3668,7 +3584,7 @@
         <v>39</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>39</v>
@@ -3676,7 +3592,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3699,15 +3615,17 @@
         <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>174</v>
+        <v>57</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>39</v>
@@ -3756,7 +3674,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -3774,764 +3692,14 @@
         <v>39</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
-      <c r="A29" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" hidden="true">
-      <c r="A30" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" hidden="true">
-      <c r="A31" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F31" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" hidden="true">
-      <c r="A33" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" hidden="true">
-      <c r="A34" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AL34" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL34">
+  <autoFilter ref="A1:AL27">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4541,7 +3709,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI33">
+  <conditionalFormatting sqref="A2:AI26">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/mcode/shr-core-Device.xlsx
+++ b/docs/mcode/shr-core-Device.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$31</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="205">
   <si>
     <t>Path</t>
   </si>
@@ -300,7 +300,7 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
+    <t xml:space="preserve">exists:url}
 </t>
   </si>
   <si>
@@ -317,6 +317,59 @@
     <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
   </si>
   <si>
+    <t>Device.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Device.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Device.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension"/&gt;</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Device.extension.valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device]]}
+</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
     <t>Device.modifierExtension</t>
   </si>
   <si>
@@ -411,10 +464,6 @@
   </si>
   <si>
     <t>Device.manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
   </si>
   <si>
     <t>Name of device manufacturer</t>
@@ -755,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -764,7 +813,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1890,36 +1939,34 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>39</v>
@@ -1941,7 +1988,7 @@
         <v>39</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W11" t="s" s="2">
         <v>39</v>
@@ -1968,13 +2015,13 @@
         <v>39</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>39</v>
@@ -1994,7 +2041,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2005,7 +2052,7 @@
         <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>39</v>
@@ -2017,17 +2064,15 @@
         <v>39</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M12" t="s" s="2">
         <v>102</v>
       </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>39</v>
@@ -2049,7 +2094,7 @@
         <v>39</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
         <v>39</v>
@@ -2076,7 +2121,7 @@
         <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
@@ -2094,15 +2139,15 @@
         <v>39</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="AL12" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
         <v>104</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2116,7 +2161,7 @@
         <v>46</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>39</v>
@@ -2125,24 +2170,22 @@
         <v>39</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>109</v>
-      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>39</v>
@@ -2157,14 +2200,16 @@
         <v>39</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="X13" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y13" t="s" s="2">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>39</v>
@@ -2182,7 +2227,7 @@
         <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>46</v>
@@ -2197,18 +2242,18 @@
         <v>39</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>112</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2216,10 +2261,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>39</v>
@@ -2231,13 +2276,13 @@
         <v>39</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2261,7 +2306,7 @@
         <v>39</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
         <v>39</v>
@@ -2288,13 +2333,13 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>39</v>
@@ -2306,7 +2351,7 @@
         <v>39</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>39</v>
@@ -2314,18 +2359,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>39</v>
@@ -2334,18 +2379,20 @@
         <v>47</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>39</v>
@@ -2370,13 +2417,13 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>39</v>
@@ -2394,13 +2441,13 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>39</v>
@@ -2412,15 +2459,15 @@
         <v>39</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>124</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2431,7 +2478,7 @@
         <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>39</v>
@@ -2443,15 +2490,17 @@
         <v>39</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>39</v>
@@ -2500,13 +2549,13 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>39</v>
@@ -2518,15 +2567,15 @@
         <v>39</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>39</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2534,13 +2583,13 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>39</v>
@@ -2549,15 +2598,17 @@
         <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>39</v>
@@ -2582,13 +2633,11 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>39</v>
@@ -2606,10 +2655,10 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>46</v>
@@ -2621,18 +2670,18 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2643,7 +2692,7 @@
         <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>39</v>
@@ -2655,13 +2704,13 @@
         <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2712,13 +2761,13 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>39</v>
@@ -2730,7 +2779,7 @@
         <v>39</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>39</v>
@@ -2738,7 +2787,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2755,19 +2804,19 @@
         <v>39</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2794,13 +2843,13 @@
         <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>39</v>
@@ -2818,7 +2867,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -2836,15 +2885,15 @@
         <v>39</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>39</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2867,13 +2916,13 @@
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2924,7 +2973,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -2942,29 +2991,29 @@
         <v>39</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>148</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>39</v>
@@ -2973,17 +3022,15 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>39</v>
@@ -3032,33 +3079,33 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="AL21" t="s" s="2">
-        <v>104</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3081,17 +3128,15 @@
         <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>39</v>
@@ -3140,7 +3185,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3158,7 +3203,7 @@
         <v>39</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>39</v>
@@ -3166,7 +3211,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3189,13 +3234,13 @@
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3246,7 +3291,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3264,7 +3309,7 @@
         <v>39</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>39</v>
@@ -3272,7 +3317,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3295,13 +3340,13 @@
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3352,7 +3397,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3370,19 +3415,19 @@
         <v>39</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3401,15 +3446,17 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>39</v>
@@ -3458,7 +3505,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3473,18 +3520,18 @@
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>177</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3495,7 +3542,7 @@
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>39</v>
@@ -3507,16 +3554,16 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -3566,13 +3613,13 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
@@ -3584,7 +3631,7 @@
         <v>39</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>39</v>
@@ -3592,7 +3639,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3615,17 +3662,15 @@
         <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>39</v>
@@ -3674,32 +3719,460 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK27" t="s" s="2">
+      <c r="L28" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL27">
+  <autoFilter ref="A1:AL31">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3709,7 +4182,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI26">
+  <conditionalFormatting sqref="A2:AI30">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
